--- a/Manga and Good Omens.xlsx
+++ b/Manga and Good Omens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanx\projects\mangaGet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196B838-7504-46CF-B1F0-C3742ED4749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D7A429-FDF3-4050-85B6-85D9E07A5EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1E48BAC1-7A91-408A-AFD5-CA046C0E3BEF}"/>
   </bookViews>
@@ -3221,7 +3221,7 @@
   <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
